--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>best fitness value</t>
+          <t>Best Fitness Value</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>Media Fitness</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>desvio</t>
+          <t>Desvio Padrão</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>var_decision</t>
+          <t>Variaveis Decisão</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>solution_gen</t>
+          <t>Solution Generation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Crossover</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Num Var Diferença</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RCE Generations</t>
         </is>
       </c>
     </row>
@@ -470,21 +495,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.263995604140661</v>
+        <v>0.0127229779629161</v>
       </c>
       <c r="C2" t="n">
-        <v>180.3900484862583</v>
+        <v>10.6298728777166</v>
       </c>
       <c r="D2" t="n">
-        <v>38.34834400295141</v>
+        <v>17.87502621931055</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.996, 0.016, 0.003, 0.001, -0.003, 0.007, 0.043, -0.026, 0.057, -0.018]</t>
+          <t>[0.008, -0.002, -5.007, -1.698, 0.101, -3.568, 4.045, 2.753, 0.01, -1.027]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>366</v>
+        <v>358</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -492,21 +532,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8087037556533687</v>
+        <v>0.001723088122808747</v>
       </c>
       <c r="C3" t="n">
-        <v>184.2783294633427</v>
+        <v>27.83086616928548</v>
       </c>
       <c r="D3" t="n">
-        <v>35.99975737865376</v>
+        <v>19.3232595081631</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.04, -0.024, -0.031, -0.005, 0.004, -0.002, -0.004, -0.003, -0.015, -0.026]</t>
+          <t>[-0.001, -0.003, 1.306, 1.944, -1.797, 3.164, -1.155, -1.084, 3.277, 4.388]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>390</v>
+        <v>237</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -514,21 +569,36 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.536427684721488</v>
+        <v>0.03013357435659358</v>
       </c>
       <c r="C4" t="n">
-        <v>184.1944126941918</v>
+        <v>34.43939232775551</v>
       </c>
       <c r="D4" t="n">
-        <v>35.05523701960779</v>
+        <v>15.53857518560453</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.016, -0.037, -0.015, 0.002, -0.016, 0.01, -1.006, 0.018, 0.006, 0.005]</t>
+          <t>[0.001, 0.012, -3.01, -5.257, -3.808, 4.461, -4.865, 4.161, -3.202, -4.45]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,21 +606,36 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8418859952961117</v>
+        <v>0.002226764059180653</v>
       </c>
       <c r="C5" t="n">
-        <v>184.8493202883479</v>
+        <v>38.77218963650116</v>
       </c>
       <c r="D5" t="n">
-        <v>35.64507279036199</v>
+        <v>15.24499154979152</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.017, -0.0, 0.032, -0.011, -0.003, 0.025, 0.014, 0.007, -0.044, 0.006]</t>
+          <t>[0.003, 0.001, -3.534, 2.749, 3.189, -0.722, 0.948, 4.512, -3.99, 2.351]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -558,21 +643,36 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8872113665859658</v>
+        <v>0.02872717612566866</v>
       </c>
       <c r="C6" t="n">
-        <v>180.743168257601</v>
+        <v>38.53401026926225</v>
       </c>
       <c r="D6" t="n">
-        <v>36.63490672248774</v>
+        <v>15.37766402513044</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.018, -0.009, -0.02, 0.003, -0.035, -0.034, 0.01, 0.033, -0.002, -0.002]</t>
+          <t>[-0.01, -0.006, 4.804, 3.871, -5.115, 0.017, -2.338, -0.995, -3.378, -1.872]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>333</v>
+        <v>321</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -580,21 +680,36 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.590081889331515</v>
+        <v>0.00764810652892578</v>
       </c>
       <c r="C7" t="n">
-        <v>184.1628230348509</v>
+        <v>31.09776118018484</v>
       </c>
       <c r="D7" t="n">
-        <v>36.41599407186707</v>
+        <v>17.1508788818801</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.018, -0.054, 0.016, 0.044, 0.005, -0.04, -0.027, -0.015, 0.006, 0.001]</t>
+          <t>[0.005, -0.004, -1.139, -3.806, -2.795, -3.863, 4.267, -2.43, 2.463, -2.365]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>291</v>
+        <v>320</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -602,21 +717,36 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6087103235327653</v>
+        <v>0.03301739952543414</v>
       </c>
       <c r="C8" t="n">
-        <v>183.4885479578658</v>
+        <v>38.34577718581947</v>
       </c>
       <c r="D8" t="n">
-        <v>36.03002162543513</v>
+        <v>13.15987105869526</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.032, -0.003, -0.003, -0.004, -0.003, 0.022, -0.005, -0.003, -0.002, 0.038]</t>
+          <t>[0.013, 0.0, -4.87, 2.534, -2.993, 1.157, -3.524, 3.627, 1.093, -3.562]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>372</v>
+        <v>328</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -624,21 +754,36 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6749406838739027</v>
+        <v>0.0004009038630599093</v>
       </c>
       <c r="C9" t="n">
-        <v>183.414061906506</v>
+        <v>37.42327238326882</v>
       </c>
       <c r="D9" t="n">
-        <v>36.75161876150376</v>
+        <v>15.18445967767289</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.001, -0.021, 0.003, 0.008, -0.003, -0.02, 0.009, -0.049, 0.005, 0.003]</t>
+          <t>[-0.001, -0.0, 0.01, -1.904, 2.123, 0.961, -3.655, 2.527, 3.17, 3.838]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>375</v>
+        <v>186</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -646,21 +791,36 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.122986835538256</v>
+        <v>0.01487656972340545</v>
       </c>
       <c r="C10" t="n">
-        <v>185.9652468235623</v>
+        <v>19.20097495374323</v>
       </c>
       <c r="D10" t="n">
-        <v>41.39129323100789</v>
+        <v>21.46190672036437</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.029, -0.012, -0.043, 0.002, 0.021, -0.038, -0.011, 0.005, -0.028, -0.001]</t>
+          <t>[-0.008, -0.003, -2.452, 2.082, 0.717, 4.352, -0.123, -1.047, -1.834, 3.565]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>368</v>
+        <v>268</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -668,21 +828,36 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6489054394259348</v>
+        <v>0.00367427936843967</v>
       </c>
       <c r="C11" t="n">
-        <v>183.9935642504602</v>
+        <v>34.28505219284522</v>
       </c>
       <c r="D11" t="n">
-        <v>39.67306732230271</v>
+        <v>18.00283981800186</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.006, 0.026, 0.023, 0.009, 0.016, 0.009, 0.035, 0.001, -0.012, -0.015]</t>
+          <t>[0.002, 0.004, -1.867, -5.647, 1.577, 2.191, -2.7, 1.418, -1.881, -3.76]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>356</v>
+        <v>142</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -690,21 +865,36 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.133389053662809</v>
+        <v>0.06622158474537443</v>
       </c>
       <c r="C12" t="n">
-        <v>183.5764461749862</v>
+        <v>35.92898802160411</v>
       </c>
       <c r="D12" t="n">
-        <v>37.4169995024541</v>
+        <v>16.45135020443567</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.002, 0.046, 0.015, -0.004, 0.011, -0.032, -0.007, 0.001, -0.002, 0.046]</t>
+          <t>[0.018, -0.0, 2.565, -3.627, -3.66, -3.347, -2.452, 2.361, -2.404, -0.202]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -712,21 +902,36 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.585744933004209</v>
+        <v>0.003411438610893214</v>
       </c>
       <c r="C13" t="n">
-        <v>184.2523830350819</v>
+        <v>23.74685239182469</v>
       </c>
       <c r="D13" t="n">
-        <v>36.11515992888301</v>
+        <v>22.09583655811857</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.019, 0.007, -0.013, -0.002, -0.007, 0.022, -0.039, 0.014, -0.006, -0.012]</t>
+          <t>[-0.003, 0.002, 0.918, -2.554, 3.432, -6.001, 4.043, -4.9, 0.514, -4.926]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>348</v>
+        <v>236</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -734,21 +939,36 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.338601171163313</v>
+        <v>0.1273136618482678</v>
       </c>
       <c r="C14" t="n">
-        <v>187.5463616989898</v>
+        <v>25.90059399314206</v>
       </c>
       <c r="D14" t="n">
-        <v>36.90437023975918</v>
+        <v>21.19204715401587</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-1.002, 0.001, 0.005, 0.006, 0.004, -0.011, -0.004, -0.037, 0.01, -0.002]</t>
+          <t>[0.012, 0.023, 3.242, 4.478, -2.285, -4.258, 2.119, 0.887, 3.394, 5.362]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>397</v>
+        <v>272</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -756,21 +976,36 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4724373447420458</v>
+        <v>0.01252730858332285</v>
       </c>
       <c r="C15" t="n">
-        <v>183.8171208999885</v>
+        <v>31.0311113650435</v>
       </c>
       <c r="D15" t="n">
-        <v>35.96239794315344</v>
+        <v>20.14580510751666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.022, 0.019, 0.018, -0.007, -0.02, 0.008, 0.016, -0.01, -0.018, 0.004]</t>
+          <t>[-0.007, -0.005, 1.402, 0.688, -5.496, -1.452, -4.794, -5.423, -2.248, 3.225]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -778,21 +1013,36 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.672583382112846</v>
+        <v>0.01241185406945533</v>
       </c>
       <c r="C16" t="n">
-        <v>182.0467173163302</v>
+        <v>39.00213804334091</v>
       </c>
       <c r="D16" t="n">
-        <v>35.61963340483849</v>
+        <v>15.27827468587565</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.01, 0.001, 0.03, 0.006, -0.069, 0.006, -0.041, 1.011, -0.006, -0.027]</t>
+          <t>[-0.007, 0.003, 1.073, -2.996, -0.805, 1.669, 3.589, -3.795, -3.456, -2.485]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>381</v>
+        <v>201</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -800,21 +1050,36 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4597132523229774</v>
+        <v>0.009065342837477175</v>
       </c>
       <c r="C17" t="n">
-        <v>179.1884899741283</v>
+        <v>28.17090283871336</v>
       </c>
       <c r="D17" t="n">
-        <v>33.61831245506765</v>
+        <v>21.70594750600404</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.01, 0.005, -0.012, 0.014, -0.016, -0.004, 0.029, -0.012, 0.007, 0.024]</t>
+          <t>[-0.007, 0.001, 3.394, 3.5, 3.622, -3.289, -3.19, 2.778, 2.479, -2.923]</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -822,21 +1087,36 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4713014749228162</v>
+        <v>0.02793195280650984</v>
       </c>
       <c r="C18" t="n">
-        <v>189.2579117729561</v>
+        <v>37.38922158297174</v>
       </c>
       <c r="D18" t="n">
-        <v>36.48202330385323</v>
+        <v>15.08271304825514</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.018, 0.028, 0.016, -0.017, 0.005, -0.012, 0.005, -0.005, -0.01, 0.021]</t>
+          <t>[-0.011, -0.005, -0.3, 4.678, -3.942, 1.598, -1.308, 0.098, -3.394, -3.628]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>337</v>
+        <v>368</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -844,21 +1124,36 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.423426146123246</v>
+        <v>0.002896669782987971</v>
       </c>
       <c r="C19" t="n">
-        <v>185.0320610324937</v>
+        <v>35.67366848184454</v>
       </c>
       <c r="D19" t="n">
-        <v>38.24897046885399</v>
+        <v>14.91891466507421</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.028, 0.001, -0.004, -0.005, 0.014, -0.014, 0.008, -0.01, -0.0, -1.023]</t>
+          <t>[-0.004, -0.001, -5.081, -0.108, -2.318, -1.915, 1.919, 3.89, 4.183, -4.126]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>375</v>
+        <v>324</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -866,21 +1161,36 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6445287056592406</v>
+        <v>0.151673496792128</v>
       </c>
       <c r="C20" t="n">
-        <v>185.8574010325521</v>
+        <v>38.33784494504182</v>
       </c>
       <c r="D20" t="n">
-        <v>36.66625430884607</v>
+        <v>16.46352726722295</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-0.014, -0.023, 0.029, -0.001, -0.002, 0.012, 0.036, 0.008, -0.002, -0.013]</t>
+          <t>[-0.003, 0.028, -3.868, 1.959, -1.987, 0.24, -4.328, 3.225, -1.095, 3.998]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>395</v>
+        <v>93</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -888,21 +1198,36 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.786088891003343</v>
+        <v>0.02100640788372665</v>
       </c>
       <c r="C21" t="n">
-        <v>187.1324226364101</v>
+        <v>32.87280680508659</v>
       </c>
       <c r="D21" t="n">
-        <v>37.88862192500407</v>
+        <v>21.27403433214677</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.004, -0.053, -1.0, 0.01, -0.01, 0.012, -0.003, 0.025, 0.001, 0.015]</t>
+          <t>[-0.009, 0.005, 1.297, 0.948, 3.652, -1.614, 0.735, -3.54, 2.562, -1.136]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>317</v>
+        <v>243</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
@@ -495,36 +495,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0127229779629161</v>
+        <v>0.01956926540036719</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6298728777166</v>
+        <v>36.52141174284134</v>
       </c>
       <c r="D2" t="n">
-        <v>17.87502621931055</v>
+        <v>13.57583797118635</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.008, -0.002, -5.007, -1.698, 0.101, -3.568, 4.045, 2.753, 0.01, -1.027]</t>
+          <t>[0.001, 0.01, 2.647, 2.329, -2.014, 1.156, 4.467, 2.249, 0.019, 0.904]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>358</v>
+        <v>207</v>
       </c>
       <c r="G2" t="n">
         <v>0.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -532,36 +532,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001723088122808747</v>
+        <v>0.001467866411049457</v>
       </c>
       <c r="C3" t="n">
-        <v>27.83086616928548</v>
+        <v>35.89755888574688</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3232595081631</v>
+        <v>14.17498379069776</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.001, -0.003, 1.306, 1.944, -1.797, 3.164, -1.155, -1.084, 3.277, 4.388]</t>
+          <t>[0.002, -0.001, -3.649, -4.374, 2.679, 1.623, 2.159, 2.46, -1.98, 1.59]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="G3" t="n">
         <v>0.9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -569,36 +569,36 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03013357435659358</v>
+        <v>0.02142120718402651</v>
       </c>
       <c r="C4" t="n">
-        <v>34.43939232775551</v>
+        <v>33.42583417222508</v>
       </c>
       <c r="D4" t="n">
-        <v>15.53857518560453</v>
+        <v>14.24537515139125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.001, 0.012, -3.01, -5.257, -3.808, 4.461, -4.865, 4.161, -3.202, -4.45]</t>
+          <t>[-0.004, 0.01, 4.869, -0.857, -1.339, -2.63, 0.455, 4.732, -0.172, 2.055]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -606,36 +606,36 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002226764059180653</v>
+        <v>0.01260353428449434</v>
       </c>
       <c r="C5" t="n">
-        <v>38.77218963650116</v>
+        <v>35.96872373428562</v>
       </c>
       <c r="D5" t="n">
-        <v>15.24499154979152</v>
+        <v>12.94990813020247</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.003, 0.001, -3.534, 2.749, 3.189, -0.722, 0.948, 4.512, -3.99, 2.351]</t>
+          <t>[0.003, -0.007, 2.736, -2.709, -2.144, 3.158, 3.017, 0.444, 2.937, -2.664]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="G5" t="n">
         <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -643,36 +643,36 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02872717612566866</v>
+        <v>0.01461891040138319</v>
       </c>
       <c r="C6" t="n">
-        <v>38.53401026926225</v>
+        <v>38.25098938108604</v>
       </c>
       <c r="D6" t="n">
-        <v>15.37766402513044</v>
+        <v>13.06450988612045</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.01, -0.006, 4.804, 3.871, -5.115, 0.017, -2.338, -0.995, -3.378, -1.872]</t>
+          <t>[0.009, -0.001, -2.525, 0.518, 3.849, -3.397, -4.088, -0.646, 0.139, 5.557]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="G6" t="n">
         <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -680,36 +680,36 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00764810652892578</v>
+        <v>0.004307864184657006</v>
       </c>
       <c r="C7" t="n">
-        <v>31.09776118018484</v>
+        <v>35.30929125890981</v>
       </c>
       <c r="D7" t="n">
-        <v>17.1508788818801</v>
+        <v>14.8042779395</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.005, -0.004, -1.139, -3.806, -2.795, -3.863, 4.267, -2.43, 2.463, -2.365]</t>
+          <t>[-0.001, 0.005, -1.314, -4.586, 0.412, -4.089, -4.238, 1.825, -1.224, -3.892]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G7" t="n">
         <v>0.9</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -717,36 +717,36 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03301739952543414</v>
+        <v>0.009362332867059564</v>
       </c>
       <c r="C8" t="n">
-        <v>38.34577718581947</v>
+        <v>36.53174545299066</v>
       </c>
       <c r="D8" t="n">
-        <v>13.15987105869526</v>
+        <v>15.36887250981379</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.013, 0.0, -4.87, 2.534, -2.993, 1.157, -3.524, 3.627, 1.093, -3.562]</t>
+          <t>[-0.001, 0.007, 3.175, 1.231, 2.945, -0.581, 1.053, 1.488, 0.174, -3.519]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="G8" t="n">
         <v>0.9</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -754,36 +754,36 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0004009038630599093</v>
+        <v>0.002394019175827822</v>
       </c>
       <c r="C9" t="n">
-        <v>37.42327238326882</v>
+        <v>35.42935783521022</v>
       </c>
       <c r="D9" t="n">
-        <v>15.18445967767289</v>
+        <v>14.58645074099777</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.001, -0.0, 0.01, -1.904, 2.123, 0.961, -3.655, 2.527, 3.17, 3.838]</t>
+          <t>[0.003, 0.002, -3.384, 3.603, -2.505, 0.826, 0.991, 0.044, -4.603, -1.536]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="G9" t="n">
         <v>0.9</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -791,36 +791,36 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01487656972340545</v>
+        <v>0.03116867977224835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.20097495374323</v>
+        <v>36.96636979009984</v>
       </c>
       <c r="D10" t="n">
-        <v>21.46190672036437</v>
+        <v>14.447955324081</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.008, -0.003, -2.452, 2.082, 0.717, 4.352, -0.123, -1.047, -1.834, 3.565]</t>
+          <t>[0.001, -0.012, 0.059, -0.666, 5.032, -2.621, -3.245, -4.959, -4.652, 2.21]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="G10" t="n">
         <v>0.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -828,36 +828,36 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00367427936843967</v>
+        <v>0.028135074950562</v>
       </c>
       <c r="C11" t="n">
-        <v>34.28505219284522</v>
+        <v>35.47102398623271</v>
       </c>
       <c r="D11" t="n">
-        <v>18.00283981800186</v>
+        <v>14.82864298107708</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.002, 0.004, -1.867, -5.647, 1.577, 2.191, -2.7, 1.418, -1.881, -3.76]</t>
+          <t>[0.004, 0.011, 3.918, 5.645, -2.628, -2.764, 5.007, 2.795, -0.367, -3.306]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="G11" t="n">
         <v>0.9</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -865,36 +865,36 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06622158474537443</v>
+        <v>0.00295142816124816</v>
       </c>
       <c r="C12" t="n">
-        <v>35.92898802160411</v>
+        <v>36.69805161454002</v>
       </c>
       <c r="D12" t="n">
-        <v>16.45135020443567</v>
+        <v>13.71072474377827</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.018, -0.0, 2.565, -3.627, -3.66, -3.347, -2.452, 2.361, -2.404, -0.202]</t>
+          <t>[0.003, 0.002, 0.339, -0.016, 0.417, -2.644, 3.663, 0.515, -4.972, 5.931]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="G12" t="n">
         <v>0.9</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -902,17 +902,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003411438610893214</v>
+        <v>0.01746694681238559</v>
       </c>
       <c r="C13" t="n">
-        <v>23.74685239182469</v>
+        <v>37.83707331108379</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09583655811857</v>
+        <v>14.92627862596803</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.003, 0.002, 0.918, -2.554, 3.432, -6.001, 4.043, -4.9, 0.514, -4.926]</t>
+          <t>[0.007, 0.006, 1.059, -0.205, 2.283, -0.647, 1.36, 0.793, 3.579, -0.863]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -922,16 +922,16 @@
         <v>0.9</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -939,36 +939,36 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1273136618482678</v>
+        <v>0.03090056105856931</v>
       </c>
       <c r="C14" t="n">
-        <v>25.90059399314206</v>
+        <v>37.09557687273732</v>
       </c>
       <c r="D14" t="n">
-        <v>21.19204715401587</v>
+        <v>15.82276847317048</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.012, 0.023, 3.242, 4.478, -2.285, -4.258, 2.119, 0.887, 3.394, 5.362]</t>
+          <t>[-0.012, 0.001, 5.169, 2.644, 0.861, -0.475, 4.636, 0.043, 4.248, -4.595]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="G14" t="n">
         <v>0.9</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -976,36 +976,36 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01252730858332285</v>
+        <v>0.0775125972758719</v>
       </c>
       <c r="C15" t="n">
-        <v>31.0311113650435</v>
+        <v>34.77232194986456</v>
       </c>
       <c r="D15" t="n">
-        <v>20.14580510751666</v>
+        <v>13.83270842569903</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.007, -0.005, 1.402, 0.688, -5.496, -1.452, -4.794, -5.423, -2.248, 3.225]</t>
+          <t>[-0.003, -0.019, -3.408, -0.091, -0.908, 3.783, -4.201, -1.139, -1.311, -0.893]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="G15" t="n">
         <v>0.9</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -1013,36 +1013,36 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01241185406945533</v>
+        <v>0.01299947981925165</v>
       </c>
       <c r="C16" t="n">
-        <v>39.00213804334091</v>
+        <v>36.19757655883634</v>
       </c>
       <c r="D16" t="n">
-        <v>15.27827468587565</v>
+        <v>12.88287224059949</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.007, 0.003, 1.073, -2.996, -0.805, 1.669, 3.589, -3.795, -3.456, -2.485]</t>
+          <t>[0.006, 0.006, 1.59, 3.41, 3.103, 0.249, 2.736, 3.292, 6.758, 2.182]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>201</v>
+        <v>389</v>
       </c>
       <c r="G16" t="n">
         <v>0.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -1050,36 +1050,36 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.009065342837477175</v>
+        <v>0.005056365467352109</v>
       </c>
       <c r="C17" t="n">
-        <v>28.17090283871336</v>
+        <v>36.2575466102053</v>
       </c>
       <c r="D17" t="n">
-        <v>21.70594750600404</v>
+        <v>15.11162021535835</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-0.007, 0.001, 3.394, 3.5, 3.622, -3.289, -3.19, 2.778, 2.479, -2.923]</t>
+          <t>[0.002, -0.005, -2.425, -3.673, 5.222, -2.525, 0.348, 2.419, 0.19, 2.842]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="G17" t="n">
         <v>0.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -1087,36 +1087,36 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02793195280650984</v>
+        <v>0.01858734947881402</v>
       </c>
       <c r="C18" t="n">
-        <v>37.38922158297174</v>
+        <v>36.20457378880962</v>
       </c>
       <c r="D18" t="n">
-        <v>15.08271304825514</v>
+        <v>15.83975836930008</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-0.011, -0.005, -0.3, 4.678, -3.942, 1.598, -1.308, 0.098, -3.394, -3.628]</t>
+          <t>[-0.01, -0.001, -3.37, -0.55, -0.014, 0.174, -0.561, -4.173, -3.76, 2.753]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>368</v>
+        <v>64</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -1124,36 +1124,36 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002896669782987971</v>
+        <v>0.001821154578259154</v>
       </c>
       <c r="C19" t="n">
-        <v>35.67366848184454</v>
+        <v>34.34558073886901</v>
       </c>
       <c r="D19" t="n">
-        <v>14.91891466507421</v>
+        <v>14.76331084931211</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.004, -0.001, -5.081, -0.108, -2.318, -1.915, 1.919, 3.89, 4.183, -4.126]</t>
+          <t>[-0.003, 0.001, 5.042, -3.121, 3.758, 4.058, -3.653, -2.232, -6.374, 4.349]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -1161,36 +1161,36 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.151673496792128</v>
+        <v>0.02419703442016363</v>
       </c>
       <c r="C20" t="n">
-        <v>38.33784494504182</v>
+        <v>35.53123892845922</v>
       </c>
       <c r="D20" t="n">
-        <v>16.46352726722295</v>
+        <v>15.21773001193171</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-0.003, 0.028, -3.868, 1.959, -1.987, 0.24, -4.328, 3.225, -1.095, 3.998]</t>
+          <t>[0.011, -0.001, -0.399, -2.871, 0.419, -4.03, 4.044, -3.241, 0.462, 1.195]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>93</v>
+        <v>309</v>
       </c>
       <c r="G20" t="n">
         <v>0.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -1198,36 +1198,36 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02100640788372665</v>
+        <v>0.07649064936954275</v>
       </c>
       <c r="C21" t="n">
-        <v>32.87280680508659</v>
+        <v>36.76758002737508</v>
       </c>
       <c r="D21" t="n">
-        <v>21.27403433214677</v>
+        <v>16.23233268517528</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-0.009, 0.005, 1.297, 0.948, 3.652, -1.614, 0.735, -3.54, 2.562, -1.136]</t>
+          <t>[0.004, 0.019, 2.469, -2.991, -4.545, 3.742, 4.97, 4.157, -0.896, 0.037]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="G21" t="n">
         <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,27 +489,32 @@
           <t>RCE Generations</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>otimização</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01956926540036719</v>
+        <v>0.07697388434997521</v>
       </c>
       <c r="C2" t="n">
-        <v>36.52141174284134</v>
+        <v>35.53620108489279</v>
       </c>
       <c r="D2" t="n">
-        <v>13.57583797118635</v>
+        <v>13.88172467181987</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.001, 0.01, 2.647, 2.329, -2.014, 1.156, 4.467, 2.249, 0.019, 0.904]</t>
+          <t>[-0.02, 0.001, -2.261, 5.435, 3.294, -1.81, -3.096, -4.468, -1.303, -0.996]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
         <v>0.9</v>
@@ -518,13 +523,18 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -532,21 +542,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001467866411049457</v>
+        <v>0.7456306031989044</v>
       </c>
       <c r="C3" t="n">
-        <v>35.89755888574688</v>
+        <v>37.71112569458124</v>
       </c>
       <c r="D3" t="n">
-        <v>14.17498379069776</v>
+        <v>15.02196153672226</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.002, -0.001, -3.649, -4.374, 2.679, 1.623, 2.159, 2.46, -1.98, 1.59]</t>
+          <t>[0.061, 0.006, 0.029, 3.015, 2.551, 2.037, -0.834, 0.826, 3.03, 5.498]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
         <v>0.9</v>
@@ -555,13 +565,18 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -569,21 +584,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02142120718402651</v>
+        <v>0.05900833755730162</v>
       </c>
       <c r="C4" t="n">
-        <v>33.42583417222508</v>
+        <v>36.5682931112825</v>
       </c>
       <c r="D4" t="n">
-        <v>14.24537515139125</v>
+        <v>14.99233509000756</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.004, 0.01, 4.869, -0.857, -1.339, -2.63, 0.455, 4.732, -0.172, 2.055]</t>
+          <t>[0.002, 0.017, -4.693, -1.835, -2.101, -1.951, 1.588, 3.782, 4.894, -1.84]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
         <v>0.9</v>
@@ -592,13 +607,18 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -606,21 +626,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01260353428449434</v>
+        <v>0.3349871824530428</v>
       </c>
       <c r="C5" t="n">
-        <v>35.96872373428562</v>
+        <v>37.69764246379143</v>
       </c>
       <c r="D5" t="n">
-        <v>12.94990813020247</v>
+        <v>14.98522222692354</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.003, -0.007, 2.736, -2.709, -2.144, 3.158, 3.017, 0.444, 2.937, -2.664]</t>
+          <t>[-0.035, 0.021, 1.141, 3.449, -2.63, 3.693, -3.994, 0.94, -0.001, 3.298]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="G5" t="n">
         <v>0.9</v>
@@ -629,13 +649,18 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -643,21 +668,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01461891040138319</v>
+        <v>0.8032267010052188</v>
       </c>
       <c r="C6" t="n">
-        <v>38.25098938108604</v>
+        <v>37.5769562385197</v>
       </c>
       <c r="D6" t="n">
-        <v>13.06450988612045</v>
+        <v>14.0918926159413</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.009, -0.001, -2.525, 0.518, 3.849, -3.397, -4.088, -0.646, 0.139, 5.557]</t>
+          <t>[-0.003, -0.064, 5.473, -0.646, 0.534, -2.816, 0.554, -2.569, -4.632, -2.101]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G6" t="n">
         <v>0.9</v>
@@ -666,13 +691,18 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -680,21 +710,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004307864184657006</v>
+        <v>1.165074119123496</v>
       </c>
       <c r="C7" t="n">
-        <v>35.30929125890981</v>
+        <v>38.7540276672738</v>
       </c>
       <c r="D7" t="n">
-        <v>14.8042779395</v>
+        <v>14.39080600159788</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.001, 0.005, -1.314, -4.586, 0.412, -4.089, -4.238, 1.825, -1.224, -3.892]</t>
+          <t>[-0.998, 0.029, 1.92, -4.603, 3.522, 1.055, 3.22, 1.688, -4.737, -4.987]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
         <v>0.9</v>
@@ -703,13 +733,18 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -717,21 +752,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009362332867059564</v>
+        <v>0.4174516062793785</v>
       </c>
       <c r="C8" t="n">
-        <v>36.53174545299066</v>
+        <v>37.62355634815322</v>
       </c>
       <c r="D8" t="n">
-        <v>15.36887250981379</v>
+        <v>13.5132300651573</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.001, 0.007, 3.175, 1.231, 2.945, -0.581, 1.053, 1.488, 0.174, -3.519]</t>
+          <t>[-0.043, -0.017, 0.204, -0.133, -1.246, -2.148, -5.114, 3.641, -4.03, 0.806]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>0.9</v>
@@ -740,13 +775,18 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -754,21 +794,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002394019175827822</v>
+        <v>0.02060542406963073</v>
       </c>
       <c r="C9" t="n">
-        <v>35.42935783521022</v>
+        <v>37.13875620982058</v>
       </c>
       <c r="D9" t="n">
-        <v>14.58645074099777</v>
+        <v>13.91135861878948</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.003, 0.002, -3.384, 3.603, -2.505, 0.826, 0.991, 0.044, -4.603, -1.536]</t>
+          <t>[0.005, -0.009, 4.381, 2.228, -3.025, -3.339, -4.928, 0.946, 1.508, 4.876]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="G9" t="n">
         <v>0.9</v>
@@ -777,13 +817,18 @@
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -791,21 +836,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03116867977224835</v>
+        <v>1.143000608583135</v>
       </c>
       <c r="C10" t="n">
-        <v>36.96636979009984</v>
+        <v>35.98418339096436</v>
       </c>
       <c r="D10" t="n">
-        <v>14.447955324081</v>
+        <v>15.80975855448107</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.001, -0.012, 0.059, -0.666, 5.032, -2.621, -3.245, -4.959, -4.652, 2.21]</t>
+          <t>[0.991, 0.027, -2.337, 1.373, -2.467, -3.615, -3.331, -3.302, -3.643, -1.324]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
         <v>0.9</v>
@@ -814,13 +859,18 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -828,21 +878,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.028135074950562</v>
+        <v>0.3232662245286306</v>
       </c>
       <c r="C11" t="n">
-        <v>35.47102398623271</v>
+        <v>38.74463091235377</v>
       </c>
       <c r="D11" t="n">
-        <v>14.82864298107708</v>
+        <v>16.33607328197687</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.004, 0.011, 3.918, 5.645, -2.628, -2.764, 5.007, 2.795, -0.367, -3.306]</t>
+          <t>[-0.027, -0.03, -2.786, 0.398, 4.468, 3.02, 4.195, 3.776, -2.355, -3.504]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
         <v>0.9</v>
@@ -851,13 +901,18 @@
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -865,21 +920,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00295142816124816</v>
+        <v>0.03532955835507501</v>
       </c>
       <c r="C12" t="n">
-        <v>36.69805161454002</v>
+        <v>37.08058982564499</v>
       </c>
       <c r="D12" t="n">
-        <v>13.71072474377827</v>
+        <v>13.66119249466576</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.003, 0.002, 0.339, -0.016, 0.417, -2.644, 3.663, 0.515, -4.972, 5.931]</t>
+          <t>[-0.005, -0.012, -3.975, -0.47, 1.33, -4.834, -3.503, 4.036, -2.284, 4.406]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="G12" t="n">
         <v>0.9</v>
@@ -888,13 +943,18 @@
         <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -902,21 +962,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01746694681238559</v>
+        <v>0.1030811400123781</v>
       </c>
       <c r="C13" t="n">
-        <v>37.83707331108379</v>
+        <v>37.51796520842527</v>
       </c>
       <c r="D13" t="n">
-        <v>14.92627862596803</v>
+        <v>15.66027875095705</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.007, 0.006, 1.059, -0.205, 2.283, -0.647, 1.36, 0.793, 3.579, -0.863]</t>
+          <t>[-0.023, 0.003, -4.34, 1.793, 3.17, 2.567, -4.878, -3.298, 5.101, -0.471]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
         <v>0.9</v>
@@ -925,13 +985,18 @@
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -939,21 +1004,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03090056105856931</v>
+        <v>0.5100900245202578</v>
       </c>
       <c r="C14" t="n">
-        <v>37.09557687273732</v>
+        <v>37.55311650566919</v>
       </c>
       <c r="D14" t="n">
-        <v>15.82276847317048</v>
+        <v>14.54953093409861</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.012, 0.001, 5.169, 2.644, 0.861, -0.475, 4.636, 0.043, 4.248, -4.595]</t>
+          <t>[-0.017, -0.048, 4.978, 3.102, 4.451, 4.577, 2.873, 1.158, -3.829, 3.548]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="G14" t="n">
         <v>0.9</v>
@@ -962,13 +1027,18 @@
         <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -976,21 +1046,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0775125972758719</v>
+        <v>0.1249846750093901</v>
       </c>
       <c r="C15" t="n">
-        <v>34.77232194986456</v>
+        <v>35.97409257505968</v>
       </c>
       <c r="D15" t="n">
-        <v>13.83270842569903</v>
+        <v>14.39223942172186</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.003, -0.019, -3.408, -0.091, -0.908, 3.783, -4.201, -1.139, -1.311, -0.893]</t>
+          <t>[-0.023, -0.01, 0.753, -3.839, 1.547, -3.189, -1.927, -4.379, 3.345, -1.376]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
         <v>0.9</v>
@@ -999,13 +1069,18 @@
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1013,21 +1088,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01299947981925165</v>
+        <v>2.476345496469058</v>
       </c>
       <c r="C16" t="n">
-        <v>36.19757655883634</v>
+        <v>38.34011937871384</v>
       </c>
       <c r="D16" t="n">
-        <v>12.88287224059949</v>
+        <v>14.87530565078715</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.006, 0.006, 1.59, 3.41, 3.103, 0.249, 2.736, 3.292, 6.758, 2.182]</t>
+          <t>[0.981, 1.043, 2.377, 0.243, 2.083, 0.957, 1.003, -2.888, 1.138, 0.79]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="G16" t="n">
         <v>0.9</v>
@@ -1036,13 +1111,18 @@
         <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1050,21 +1130,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.005056365467352109</v>
+        <v>1.05798511072997</v>
       </c>
       <c r="C17" t="n">
-        <v>36.2575466102053</v>
+        <v>38.40940803607885</v>
       </c>
       <c r="D17" t="n">
-        <v>15.11162021535835</v>
+        <v>14.71960372301659</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.002, -0.005, -2.425, -3.673, 5.222, -2.525, 0.348, 2.419, 0.19, 2.842]</t>
+          <t>[-0.01, 1.01, -4.519, 1.379, -2.806, -0.123, -2.018, 3.65, 0.914, 3.235]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
         <v>0.9</v>
@@ -1073,13 +1153,18 @@
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1087,21 +1172,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01858734947881402</v>
+        <v>0.1651957230303207</v>
       </c>
       <c r="C18" t="n">
-        <v>36.20457378880962</v>
+        <v>38.92716872127548</v>
       </c>
       <c r="D18" t="n">
-        <v>15.83975836930008</v>
+        <v>15.36928820650046</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-0.01, -0.001, -3.37, -0.55, -0.014, 0.174, -0.561, -4.173, -3.76, 2.753]</t>
+          <t>[0.025, -0.014, 3.318, -2.51, -0.781, -0.045, 4.854, -1.09, 2.901, -1.637]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -1110,13 +1195,18 @@
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1124,21 +1214,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001821154578259154</v>
+        <v>0.05796230140265735</v>
       </c>
       <c r="C19" t="n">
-        <v>34.34558073886901</v>
+        <v>36.19371433992924</v>
       </c>
       <c r="D19" t="n">
-        <v>14.76331084931211</v>
+        <v>14.81734837378289</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.003, 0.001, 5.042, -3.121, 3.758, 4.058, -3.653, -2.232, -6.374, 4.349]</t>
+          <t>[-0.013, -0.011, 2.371, -4.842, 1.708, 3.315, -0.706, -2.169, 4.33, 1.721]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>338</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -1147,13 +1237,18 @@
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1161,21 +1256,21 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02419703442016363</v>
+        <v>1.076113230730604</v>
       </c>
       <c r="C20" t="n">
-        <v>35.53123892845922</v>
+        <v>38.56138392090119</v>
       </c>
       <c r="D20" t="n">
-        <v>15.21773001193171</v>
+        <v>14.58514922415272</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.011, -0.001, -0.399, -2.871, 0.419, -4.03, 4.044, -3.241, 0.462, 1.195]</t>
+          <t>[0.98, 0.014, 2.592, -4.104, -3.329, 3.488, 4.501, 1.996, -4.353, -4.831]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
         <v>0.9</v>
@@ -1184,13 +1279,18 @@
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1198,21 +1298,21 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07649064936954275</v>
+        <v>1.097704416805605</v>
       </c>
       <c r="C21" t="n">
-        <v>36.76758002737508</v>
+        <v>40.13723238506791</v>
       </c>
       <c r="D21" t="n">
-        <v>16.23233268517528</v>
+        <v>14.53878734441955</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.004, 0.019, 2.469, -2.991, -4.545, 3.742, 4.97, 4.157, -0.896, 0.037]</t>
+          <t>[0.003, 0.972, 1.508, 4.741, 1.651, 4.142, 3.347, -3.691, 1.689, 0.795]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>354</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
         <v>0.9</v>
@@ -1221,13 +1321,18 @@
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
@@ -500,40 +500,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07697388434997521</v>
+        <v>0.003327468031098846</v>
       </c>
       <c r="C2" t="n">
-        <v>35.53620108489279</v>
+        <v>0.003327468031098846</v>
       </c>
       <c r="D2" t="n">
-        <v>13.88172467181987</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.02, 0.001, -2.261, 5.435, 3.294, -1.81, -3.096, -4.468, -1.303, -0.996]</t>
+          <t>[-0.001, -0.004, 3.21, 4.043, -1.369, 0.51, 1.148, 1.251, 1.646, -3.054]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -542,40 +542,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7456306031989044</v>
+        <v>0.0009326268923981473</v>
       </c>
       <c r="C3" t="n">
-        <v>37.71112569458124</v>
+        <v>0.001146956596021482</v>
       </c>
       <c r="D3" t="n">
-        <v>15.02196153672226</v>
+        <v>0.002132553625040034</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.061, 0.006, 0.029, 3.015, 2.551, 2.037, -0.834, 0.826, 3.03, 5.498]</t>
+          <t>[0.002, -0.001, -4.909, -4.583, -0.476, -2.423, 1.751, 2.155, 3.136, -2.335]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -584,40 +584,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05900833755730162</v>
+        <v>0.07522058214585492</v>
       </c>
       <c r="C4" t="n">
-        <v>36.5682931112825</v>
+        <v>0.1364590406222389</v>
       </c>
       <c r="D4" t="n">
-        <v>14.99233509000756</v>
+        <v>0.6093149685177748</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.002, 0.017, -4.693, -1.835, -2.101, -1.951, 1.588, 3.782, 4.894, -1.84]</t>
+          <t>[-0.013, -0.014, 1.962, 0.766, -5.385, -2.917, -1.687, 1.045, -1.005, -5.031]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -626,40 +626,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3349871824530428</v>
+        <v>0.003992232625352088</v>
       </c>
       <c r="C5" t="n">
-        <v>37.69764246379143</v>
+        <v>0.003992232625352088</v>
       </c>
       <c r="D5" t="n">
-        <v>14.98522222692354</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.035, 0.021, 1.141, 3.449, -2.63, 3.693, -3.994, 0.94, -0.001, 3.298]</t>
+          <t>[0.002, -0.004, 3.622, -1.911, -3.994, 2.433, 3.766, -3.129, 0.283, 2.087]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -668,40 +668,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8032267010052188</v>
+        <v>0.016318788959099</v>
       </c>
       <c r="C6" t="n">
-        <v>37.5769562385197</v>
+        <v>0.3377270676700765</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0918926159413</v>
+        <v>3.19797199499486</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.003, -0.064, 5.473, -0.646, 0.534, -2.816, 0.554, -2.569, -4.632, -2.101]</t>
+          <t>[-0.008, -0.005, 2.61, 3.872, -4.773, 0.019, -3.953, -0.397, -1.545, 1.424]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -710,40 +710,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.165074119123496</v>
+        <v>0.04187048041968033</v>
       </c>
       <c r="C7" t="n">
-        <v>38.7540276672738</v>
+        <v>0.04187048041968033</v>
       </c>
       <c r="D7" t="n">
-        <v>14.39080600159788</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.998, 0.029, 1.92, -4.603, 3.522, 1.055, 3.22, 1.688, -4.737, -4.987]</t>
+          <t>[0.015, 0.001, 4.044, -2.28, 2.457, 3.483, -4.793, -2.483, 4.0, -1.815]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -752,40 +752,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4174516062793785</v>
+        <v>0.0458629444312475</v>
       </c>
       <c r="C8" t="n">
-        <v>37.62355634815322</v>
+        <v>0.3155415008809831</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5132300651573</v>
+        <v>2.248004625440319</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.043, -0.017, 0.204, -0.133, -1.246, -2.148, -5.114, 3.641, -4.03, 0.806]</t>
+          <t>[0.0, 0.015, 2.413, -4.059, 4.109, 1.894, 4.111, -0.525, 0.434, -4.508]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -794,40 +794,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02060542406963073</v>
+        <v>0.01793330803132065</v>
       </c>
       <c r="C9" t="n">
-        <v>37.13875620982058</v>
+        <v>0.2163660561109815</v>
       </c>
       <c r="D9" t="n">
-        <v>13.91135861878948</v>
+        <v>1.974380914498053</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.005, -0.009, 4.381, 2.228, -3.025, -3.339, -4.928, 0.946, 1.508, 4.876]</t>
+          <t>[0.003, -0.009, -1.718, 0.735, 4.704, 2.698, 1.974, 3.998, -4.269, -1.744]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -836,40 +836,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.143000608583135</v>
+        <v>0.01441770265729758</v>
       </c>
       <c r="C10" t="n">
-        <v>35.98418339096436</v>
+        <v>0.1842229192705223</v>
       </c>
       <c r="D10" t="n">
-        <v>15.80975855448107</v>
+        <v>1.201828909486969</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.991, 0.027, -2.337, 1.373, -2.467, -3.615, -3.331, -3.302, -3.643, -1.324]</t>
+          <t>[0.001, -0.008, -2.869, 1.2, -4.528, -5.113, 1.725, 1.201, 1.659, 4.098]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -878,40 +878,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3232662245286306</v>
+        <v>0.01353150297635786</v>
       </c>
       <c r="C11" t="n">
-        <v>38.74463091235377</v>
+        <v>0.3569674422831909</v>
       </c>
       <c r="D11" t="n">
-        <v>16.33607328197687</v>
+        <v>2.427303044881209</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.027, -0.03, -2.786, 0.398, 4.468, 3.02, 4.195, 3.776, -2.355, -3.504]</t>
+          <t>[0.004, -0.007, 1.155, -3.147, -2.591, -2.249, -5.015, 1.968, -2.493, 6.026]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -920,40 +920,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03532955835507501</v>
+        <v>0.0004114117357030267</v>
       </c>
       <c r="C12" t="n">
-        <v>37.08058982564499</v>
+        <v>0.3155580488370271</v>
       </c>
       <c r="D12" t="n">
-        <v>13.66119249466576</v>
+        <v>2.230059912380302</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.005, -0.012, -3.975, -0.47, 1.33, -4.834, -3.503, 4.036, -2.284, 4.406]</t>
+          <t>[0.001, -0.001, -2.695, -6.234, -0.032, -1.131, -0.578, -4.219, -0.552, -5.565]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -962,40 +962,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1030811400123781</v>
+        <v>0.006297034618096831</v>
       </c>
       <c r="C13" t="n">
-        <v>37.51796520842527</v>
+        <v>0.1704642413880778</v>
       </c>
       <c r="D13" t="n">
-        <v>15.66027875095705</v>
+        <v>1.633443083210158</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.023, 0.003, -4.34, 1.793, 3.17, 2.567, -4.878, -3.298, 5.101, -0.471]</t>
+          <t>[-0.005, -0.002, 4.368, -2.813, 2.331, 0.041, 5.024, -4.447, -1.847, -0.22]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1004,40 +1004,40 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5100900245202578</v>
+        <v>0.01267828854767039</v>
       </c>
       <c r="C14" t="n">
-        <v>37.55311650566919</v>
+        <v>0.83262178884654</v>
       </c>
       <c r="D14" t="n">
-        <v>14.54953093409861</v>
+        <v>4.380606885453869</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.017, -0.048, 4.978, 3.102, 4.451, 4.577, 2.873, 1.158, -3.829, 3.548]</t>
+          <t>[0.0, -0.008, -4.526, -0.402, 2.219, -1.103, 1.951, -0.109, -5.03, -0.337]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1046,40 +1046,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1249846750093901</v>
+        <v>0.0146729628383806</v>
       </c>
       <c r="C15" t="n">
-        <v>35.97409257505968</v>
+        <v>0.0146729628383806</v>
       </c>
       <c r="D15" t="n">
-        <v>14.39223942172186</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.023, -0.01, 0.753, -3.839, 1.547, -3.189, -1.927, -4.379, 3.345, -1.376]</t>
+          <t>[0.0, -0.009, -1.047, 6.53, 4.976, -1.831, -0.519, 4.798, -1.509, -5.246]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1088,40 +1088,40 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.476345496469058</v>
+        <v>0.0131125382684818</v>
       </c>
       <c r="C16" t="n">
-        <v>38.34011937871384</v>
+        <v>0.0131125382684818</v>
       </c>
       <c r="D16" t="n">
-        <v>14.87530565078715</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.981, 1.043, 2.377, 0.243, 2.083, 0.957, 1.003, -2.888, 1.138, 0.79]</t>
+          <t>[-0.008, 0.002, -0.223, -4.507, -4.183, 1.188, -2.67, -0.785, 4.926, -0.977]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1130,40 +1130,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.05798511072997</v>
+        <v>0.09667754442789267</v>
       </c>
       <c r="C17" t="n">
-        <v>38.40940803607885</v>
+        <v>0.3407442280350323</v>
       </c>
       <c r="D17" t="n">
-        <v>14.71960372301659</v>
+        <v>2.005212019474229</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-0.01, 1.01, -4.519, 1.379, -2.806, -0.123, -2.018, 3.65, 0.914, 3.235]</t>
+          <t>[0.005, 0.021, 2.827, -3.092, 5.085, 3.654, 2.337, 3.452, 3.623, 4.587]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1172,40 +1172,40 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1651957230303207</v>
+        <v>0.01416501790430935</v>
       </c>
       <c r="C18" t="n">
-        <v>38.92716872127548</v>
+        <v>0.1090155418252776</v>
       </c>
       <c r="D18" t="n">
-        <v>15.36928820650046</v>
+        <v>0.9437507970434441</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.025, -0.014, 3.318, -2.51, -0.781, -0.045, 4.854, -1.09, 2.901, -1.637]</t>
+          <t>[-0.001, -0.008, -2.252, -0.319, 0.435, -4.389, -3.768, 0.351, 2.029, 1.173]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1214,40 +1214,40 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05796230140265735</v>
+        <v>0.006322601777156933</v>
       </c>
       <c r="C19" t="n">
-        <v>36.19371433992924</v>
+        <v>0.1450463488348091</v>
       </c>
       <c r="D19" t="n">
-        <v>14.81734837378289</v>
+        <v>0.985200937201361</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.013, -0.011, 2.371, -4.842, 1.708, 3.315, -0.706, -2.169, 4.33, 1.721]</t>
+          <t>[-0.003, 0.005, -3.093, -1.238, 4.546, -4.189, 2.824, -2.12, -2.794, 0.356]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1256,40 +1256,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.076113230730604</v>
+        <v>0.01852859245552274</v>
       </c>
       <c r="C20" t="n">
-        <v>38.56138392090119</v>
+        <v>0.1032425320055642</v>
       </c>
       <c r="D20" t="n">
-        <v>14.58514922415272</v>
+        <v>0.8428930560010086</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.98, 0.014, 2.592, -4.104, -3.329, 3.488, 4.501, 1.996, -4.353, -4.831]</t>
+          <t>[-0.008, 0.006, 3.37, -4.602, -5.452, 3.903, 2.525, 0.074, 4.009, 1.515]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1298,40 +1298,40 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.097704416805605</v>
+        <v>0.5514124420918201</v>
       </c>
       <c r="C21" t="n">
-        <v>40.13723238506791</v>
+        <v>0.9026379177511973</v>
       </c>
       <c r="D21" t="n">
-        <v>14.53878734441955</v>
+        <v>2.460070062370773</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.003, 0.972, 1.508, 4.741, 1.651, 4.142, 3.347, -3.691, 1.689, 0.795]</t>
+          <t>[0.053, -0.006, -0.269, 1.649, -0.543, -2.632, -3.8, 1.249, -1.096, -3.483]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,25 +471,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>Mutação do Individuo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Percentual apply rce</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Num Var Diferença</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Delta</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RCE Generations</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RCE Num Generations</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>otimização</t>
         </is>
@@ -500,38 +505,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003327468031098846</v>
+        <v>0.02426917192682332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003327468031098846</v>
+        <v>0.06440806603944189</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3993769538140834</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.001, -0.004, 3.21, 4.043, -1.369, 0.51, 1.148, 1.251, 1.646, -3.054]</t>
+          <t>[-0.006, 0.009, 5.7, -3.38, 2.482, -4.108, 4.032, 2.918, 2.428, -1.892]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -542,38 +550,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0009326268923981473</v>
+        <v>0.03911671416299178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001146956596021482</v>
+        <v>0.1764616114837466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002132553625040034</v>
+        <v>1.366564473848496</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.002, -0.001, -4.909, -4.583, -0.476, -2.423, 1.751, 2.155, 3.136, -2.335]</t>
+          <t>[0.011, 0.008, -0.972, -0.377, -1.496, 1.116, 2.052, -0.703, -1.542, 0.264]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -584,38 +595,41 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07522058214585492</v>
+        <v>0.1177570884729757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1364590406222389</v>
+        <v>0.2062618714565895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6093149685177748</v>
+        <v>0.8806114719254341</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.013, -0.014, 1.962, 0.766, -5.385, -2.917, -1.687, 1.045, -1.005, -5.031]</t>
+          <t>[-0.005, -0.024, -1.81, -2.134, 5.107, -1.272, -0.718, 2.174, 1.569, 4.131]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -626,38 +640,41 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003992232625352088</v>
+        <v>0.006334902933385678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003992232625352088</v>
+        <v>0.08021435374789519</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7350912542077341</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.002, -0.004, 3.622, -1.911, -3.994, 2.433, 3.766, -3.129, 0.283, 2.087]</t>
+          <t>[-0.001, -0.005, -2.032, -2.349, -2.593, 0.759, 2.27, -1.399, -1.369, -0.75]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -668,38 +685,41 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.016318788959099</v>
+        <v>0.03563545476768759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3377270676700765</v>
+        <v>0.03563545476768759</v>
       </c>
       <c r="D6" t="n">
-        <v>3.19797199499486</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.008, -0.005, 2.61, 3.872, -4.773, 0.019, -3.953, -0.397, -1.545, 1.424]</t>
+          <t>[-0.005, -0.012, 2.694, 1.94, -4.426, -3.48, -3.262, -0.455, -7.578, -0.823]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -710,38 +730,41 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04187048041968033</v>
+        <v>0.1520477751524556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04187048041968033</v>
+        <v>0.1520477751524556</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.015, 0.001, 4.044, -2.28, 2.457, 3.483, -4.793, -2.483, 4.0, -1.815]</t>
+          <t>[0.028, -0.002, -0.275, -6.338, 2.467, 0.911, 1.471, 2.796, 0.873, 2.766]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -752,38 +775,41 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0458629444312475</v>
+        <v>0.1216281372875851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3155415008809831</v>
+        <v>0.2177078353411147</v>
       </c>
       <c r="D8" t="n">
-        <v>2.248004625440319</v>
+        <v>0.9559809252425921</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.0, 0.015, 2.413, -4.059, 4.109, 1.894, 4.111, -0.525, 0.434, -4.508]</t>
+          <t>[-0.011, 0.022, 0.828, 2.292, 1.624, -2.734, 3.971, 3.417, 6.077, -4.561]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -794,38 +820,41 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01793330803132065</v>
+        <v>0.3712540851699089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2163660561109815</v>
+        <v>0.3712540851699089</v>
       </c>
       <c r="D9" t="n">
-        <v>1.974380914498053</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.003, -0.009, -1.718, 0.735, 4.704, 2.698, 1.974, 3.998, -4.269, -1.744]</t>
+          <t>[-0.04, -0.017, -2.576, -4.51, 4.393, 0.967, -2.979, 0.436, -3.115, 0.632]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -836,38 +865,41 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01441770265729758</v>
+        <v>0.1390496238136336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1842229192705223</v>
+        <v>0.228068959370221</v>
       </c>
       <c r="D10" t="n">
-        <v>1.201828909486969</v>
+        <v>0.8857312053838301</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.001, -0.008, -2.869, 1.2, -4.528, -5.113, 1.725, 1.201, 1.659, 4.098]</t>
+          <t>[-0.023, 0.013, -3.557, -4.078, -6.604, 0.106, -2.704, 3.722, 2.293, -3.046]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>20</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -878,38 +910,41 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01353150297635786</v>
+        <v>0.06240329286007729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3569674422831909</v>
+        <v>0.06240329286007729</v>
       </c>
       <c r="D11" t="n">
-        <v>2.427303044881209</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.004, -0.007, 1.155, -3.147, -2.591, -2.249, -5.015, 1.968, -2.493, 6.026]</t>
+          <t>[0.018, -0.001, -4.429, -4.987, -3.442, 2.71, 0.252, 2.576, 6.203, -5.003]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -920,38 +955,41 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0004114117357030267</v>
+        <v>0.07948562672194548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3155580488370271</v>
+        <v>0.3409280113450645</v>
       </c>
       <c r="D12" t="n">
-        <v>2.230059912380302</v>
+        <v>1.272658718191312</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.001, -0.001, -2.695, -6.234, -0.032, -1.131, -0.578, -4.219, -0.552, -5.565]</t>
+          <t>[-0.018, 0.008, 3.177, 2.956, 5.432, 2.064, -0.328, 3.853, -2.429, 4.863]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -962,38 +1000,41 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006297034618096831</v>
+        <v>1.517499533251186</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1704642413880778</v>
+        <v>1.517499533251187</v>
       </c>
       <c r="D13" t="n">
-        <v>1.633443083210158</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.005, -0.002, 4.368, -2.813, 2.331, 0.041, 5.024, -4.447, -1.847, -0.22]</t>
+          <t>[0.989, 0.051, -2.588, -6.149, -0.89, -2.928, 0.015, 0.475, -0.098, 4.721]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>20</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1004,38 +1045,41 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01267828854767039</v>
+        <v>0.02890132788719235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.83262178884654</v>
+        <v>0.4561985586141964</v>
       </c>
       <c r="D14" t="n">
-        <v>4.380606885453869</v>
+        <v>2.84589485584877</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.0, -0.008, -4.526, -0.402, 2.219, -1.103, 1.951, -0.109, -5.03, -0.337]</t>
+          <t>[-0.006, -0.01, -0.59, 4.14, -0.248, -2.556, -2.095, -1.687, 2.61, -0.185]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1046,38 +1090,41 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0146729628383806</v>
+        <v>0.01973067481662305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0146729628383806</v>
+        <v>0.01973067481662305</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.0, -0.009, -1.047, 6.53, 4.976, -1.831, -0.519, 4.798, -1.509, -5.246]</t>
+          <t>[-0.008, 0.006, -3.365, -1.208, -4.302, -2.971, 1.018, -0.433, 1.642, -3.084]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>20</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1088,38 +1135,41 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0131125382684818</v>
+        <v>0.2088156556496124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0131125382684818</v>
+        <v>0.2088156556496124</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.008, 0.002, -0.223, -4.507, -4.183, 1.188, -2.67, -0.785, 4.926, -0.977]</t>
+          <t>[-0.001, 0.032, -4.061, -5.789, 0.13, -5.29, -2.837, 3.017, 1.216, -0.176]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1130,38 +1180,41 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09667754442789267</v>
+        <v>0.2627432411471879</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3407442280350323</v>
+        <v>0.3946958954277737</v>
       </c>
       <c r="D17" t="n">
-        <v>2.005212019474229</v>
+        <v>1.217328923179297</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.005, 0.021, 2.827, -3.092, 5.085, 3.654, 2.337, 3.452, 3.623, 4.587]</t>
+          <t>[0.005, -0.036, 4.866, -0.768, 4.337, -0.009, -0.929, 2.36, 5.042, -0.418]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1172,38 +1225,41 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01416501790430935</v>
+        <v>0.01981756770407017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1090155418252776</v>
+        <v>0.2405073117350338</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9437507970434441</v>
+        <v>2.195835228090844</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-0.001, -0.008, -2.252, -0.319, 0.435, -4.389, -3.768, 0.351, 2.029, 1.173]</t>
+          <t>[0.007, -0.007, 1.494, -1.58, 4.359, -4.323, -4.285, 7.521, 2.557, 1.381]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1214,38 +1270,41 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006322601777156933</v>
+        <v>0.05284981261893051</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1450463488348091</v>
+        <v>0.1443592859821783</v>
       </c>
       <c r="D19" t="n">
-        <v>0.985200937201361</v>
+        <v>0.9105077637267437</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.003, 0.005, -3.093, -1.238, 4.546, -4.189, 2.824, -2.12, -2.794, 0.356]</t>
+          <t>[0.007, -0.015, 2.36, -4.975, -0.147, 2.864, -2.755, 1.423, 3.203, 0.84]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>20</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1256,38 +1315,41 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01852859245552274</v>
+        <v>0.0158502933789606</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1032425320055642</v>
+        <v>0.4044163060708144</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8428930560010086</v>
+        <v>3.114068892591673</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-0.008, 0.006, 3.37, -4.602, -5.452, 3.903, 2.525, 0.074, 4.009, 1.515]</t>
+          <t>[0.009, -0.002, 4.251, -0.741, -1.955, -1.837, 1.225, 3.882, -1.595, 1.305]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>20</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>
@@ -1298,38 +1360,41 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5514124420918201</v>
+        <v>0.6819449315434536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9026379177511973</v>
+        <v>0.6819449315434537</v>
       </c>
       <c r="D21" t="n">
-        <v>2.460070062370773</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.053, -0.006, -0.269, 1.649, -0.543, -2.632, -3.8, 1.249, -1.096, -3.483]</t>
+          <t>[-0.059, 0.003, -0.337, 1.322, 3.813, -0.259, -4.206, -4.859, -1.457, 4.777]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>esfera</t>
         </is>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_consolidado.xlsx
@@ -505,33 +505,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02426917192682332</v>
+        <v>0.009920266279618062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06440806603944189</v>
+        <v>0.6913662939183518</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3993769538140834</v>
+        <v>3.123767881583447</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.006, 0.009, 5.7, -3.38, 2.482, -4.108, 4.032, 2.918, 2.428, -1.892]</t>
+          <t>[-0.001, -0.007, -2.325, -3.227, 2.363, -8.816, -2.07, 2.464, 1.212, 2.268]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -550,33 +550,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03911671416299178</v>
+        <v>0.004299932126333061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1764616114837466</v>
+        <v>0.7225830575770099</v>
       </c>
       <c r="D3" t="n">
-        <v>1.366564473848496</v>
+        <v>3.507797315013367</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.011, 0.008, -0.972, -0.377, -1.496, 1.116, 2.052, -0.703, -1.542, 0.264]</t>
+          <t>[-0.005, -0.001, 4.876, -3.333, -1.449, -2.555, 6.035, 2.246, 3.37, 5.117]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -595,33 +595,33 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1177570884729757</v>
+        <v>0.007494997189404273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2062618714565895</v>
+        <v>0.6133258802863075</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8806114719254341</v>
+        <v>2.92417206554137</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.005, -0.024, -1.81, -2.134, 5.107, -1.272, -0.718, 2.174, 1.569, 4.131]</t>
+          <t>[-0.006, -0.002, -3.984, -1.203, -2.34, -1.494, 4.941, 4.081, 3.687, 3.421]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -640,33 +640,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006334902933385678</v>
+        <v>0.03102480300322874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08021435374789519</v>
+        <v>0.1836407563124106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7350912542077341</v>
+        <v>1.316284502370586</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.001, -0.005, -2.032, -2.349, -2.593, 0.759, 2.27, -1.399, -1.369, -0.75]</t>
+          <t>[0.012, -0.001, 3.017, -5.162, -4.219, -4.587, -4.311, -3.371, 3.652, 6.283]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03563545476768759</v>
+        <v>0.0006688836289185929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03563545476768759</v>
+        <v>0.5826613267167927</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.258187524213686</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.005, -0.012, 2.694, 1.94, -4.426, -3.48, -3.262, -0.455, -7.578, -0.823]</t>
+          <t>[0.002, 0.001, 2.964, 6.9, 4.321, 3.662, -3.934, 2.686, 3.313, 3.534]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -730,33 +730,33 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1520477751524556</v>
+        <v>0.003388360013895308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1520477751524556</v>
+        <v>0.603111750281019</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.499152314587485</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.028, -0.002, -0.275, -6.338, 2.467, 0.911, 1.471, 2.796, 0.873, 2.766]</t>
+          <t>[-0.004, 0.001, -4.317, -0.179, -0.359, 0.609, -7.703, -1.357, 1.202, -4.0]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -775,33 +775,33 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1216281372875851</v>
+        <v>0.01374012526102142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2177078353411147</v>
+        <v>0.4265838913004686</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9559809252425921</v>
+        <v>2.590151695269923</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.011, 0.022, 0.828, 2.292, 1.624, -2.734, 3.971, 3.417, 6.077, -4.561]</t>
+          <t>[0.008, 0.003, -2.641, 0.474, -3.724, -1.003, -6.204, 4.034, -3.534, -8.363]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -820,33 +820,33 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3712540851699089</v>
+        <v>0.02125418161781312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3712540851699089</v>
+        <v>0.8188099518037262</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.766717784328941</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.04, -0.017, -2.576, -4.51, 4.393, 0.967, -2.979, 0.436, -3.115, 0.632]</t>
+          <t>[0.002, 0.01, -2.023, 0.872, 0.286, -4.894, 2.655, -1.961, -0.101, -5.786]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1390496238136336</v>
+        <v>0.002674801973672203</v>
       </c>
       <c r="C10" t="n">
-        <v>0.228068959370221</v>
+        <v>0.002674801973672203</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8857312053838301</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.023, 0.013, -3.557, -4.078, -6.604, 0.106, -2.704, 3.722, 2.293, -3.046]</t>
+          <t>[-0.003, -0.003, -3.768, -3.421, -2.1, -0.063, 1.541, 2.757, 3.418, -0.724]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>30</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -910,33 +910,33 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06240329286007729</v>
+        <v>0.02422172100187403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06240329286007729</v>
+        <v>0.6046335649491639</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.814756935421849</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.018, -0.001, -4.429, -4.987, -3.442, 2.71, 0.252, 2.576, 6.203, -5.003]</t>
+          <t>[-0.011, 0.0, 6.857, -0.816, 1.289, 1.599, 1.279, 3.487, 3.122, 3.781]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -955,33 +955,33 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07948562672194548</v>
+        <v>0.0004900049639253723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3409280113450645</v>
+        <v>0.3050264431564159</v>
       </c>
       <c r="D12" t="n">
-        <v>1.272658718191312</v>
+        <v>2.108437872068547</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.018, 0.008, 3.177, 2.956, 5.432, 2.064, -0.328, 3.853, -2.429, 4.863]</t>
+          <t>[-0.001, -0.001, -0.382, -3.501, 0.426, 2.124, -4.313, -3.642, 2.222, -3.612]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>3</v>
@@ -1000,33 +1000,33 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.517499533251186</v>
+        <v>0.009008007064899459</v>
       </c>
       <c r="C13" t="n">
-        <v>1.517499533251187</v>
+        <v>0.5184045755049077</v>
       </c>
       <c r="D13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.930485791916662</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.989, 0.051, -2.588, -6.149, -0.89, -2.928, 0.015, 0.475, -0.098, 4.721]</t>
+          <t>[-0.002, 0.006, 6.187, 2.376, 1.367, -1.757, -2.228, 1.184, -4.903, -0.693]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>30</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1045,33 +1045,33 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02890132788719235</v>
+        <v>0.002052022714945423</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4561985586141964</v>
+        <v>0.05687851455849444</v>
       </c>
       <c r="D14" t="n">
-        <v>2.84589485584877</v>
+        <v>0.5187150445880391</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.006, -0.01, -0.59, 4.14, -0.248, -2.556, -2.095, -1.687, 2.61, -0.185]</t>
+          <t>[-0.003, -0.001, -2.567, -2.651, -4.551, -4.785, 2.049, 0.325, 3.991, 5.809]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>3</v>
@@ -1090,33 +1090,33 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01973067481662305</v>
+        <v>0.05177053714756319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01973067481662305</v>
+        <v>0.7100873590841027</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.078304620112982</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.008, 0.006, -3.365, -1.208, -4.302, -2.971, 1.018, -0.433, 1.642, -3.084]</t>
+          <t>[-0.008, -0.014, -0.532, 4.445, -5.379, 6.381, -0.15, -2.943, -5.146, -0.041]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1135,33 +1135,33 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2088156556496124</v>
+        <v>0.005857078331038323</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2088156556496124</v>
+        <v>0.6267453195738232</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.893974438921225</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.001, 0.032, -4.061, -5.789, 0.13, -5.29, -2.837, 3.017, 1.216, -0.176]</t>
+          <t>[-0.005, -0.002, -3.275, -2.909, 0.85, 1.17, -7.772, -0.217, 1.401, -1.589]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1180,33 +1180,33 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2627432411471879</v>
+        <v>0.0008483236247638359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3946958954277737</v>
+        <v>0.5262498131540747</v>
       </c>
       <c r="D17" t="n">
-        <v>1.217328923179297</v>
+        <v>2.86283439483493</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.005, -0.036, 4.866, -0.768, 4.337, -0.009, -0.929, 2.36, 5.042, -0.418]</t>
+          <t>[-0.0, 0.002, -6.582, -1.742, -4.291, -5.072, -3.686, 1.223, -1.752, 2.446]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
@@ -1225,33 +1225,33 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01981756770407017</v>
+        <v>0.0005952955134738147</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2405073117350338</v>
+        <v>0.1911205150705567</v>
       </c>
       <c r="D18" t="n">
-        <v>2.195835228090844</v>
+        <v>1.60380270067127</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.007, -0.007, 1.494, -1.58, 4.359, -4.323, -4.285, 7.521, 2.557, 1.381]</t>
+          <t>[0.001, 0.001, -4.167, -0.876, -1.472, 6.282, -0.172, 2.738, -0.694, 4.908]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
         <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1270,33 +1270,33 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05284981261893051</v>
+        <v>0.003135285011071076</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1443592859821783</v>
+        <v>0.1715647202592775</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9105077637267437</v>
+        <v>1.231212881449479</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.007, -0.015, 2.36, -4.975, -0.147, 2.864, -2.755, 1.423, 3.203, 0.84]</t>
+          <t>[-0.003, 0.002, -4.661, 2.676, 3.408, -0.817, -5.468, 4.051, -3.432, -5.114]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
         <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1315,33 +1315,33 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0158502933789606</v>
+        <v>0.001876217535027536</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4044163060708144</v>
+        <v>0.211065407630475</v>
       </c>
       <c r="D20" t="n">
-        <v>3.114068892591673</v>
+        <v>1.511578953861807</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.009, -0.002, 4.251, -0.741, -1.955, -1.837, 1.225, 3.882, -1.595, 1.305]</t>
+          <t>[0.002, 0.002, 2.518, 4.489, 1.495, 3.449, 0.156, -2.47, -5.304, 1.297]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
         <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1360,33 +1360,33 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6819449315434536</v>
+        <v>0.01802493177966014</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6819449315434537</v>
+        <v>0.01802493177966014</v>
       </c>
       <c r="D21" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-0.059, 0.003, -0.337, 1.322, 3.813, -0.259, -4.206, -4.859, -1.457, 4.777]</t>
+          <t>[0.0, -0.01, -3.635, 4.203, 2.712, -2.056, -0.671, 0.724, 0.762, 2.93]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
         <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
